--- a/data/substance_portion.xlsx
+++ b/data/substance_portion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1146"/>
+  <dimension ref="A1:D1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25645,6 +25645,534 @@
         </is>
       </c>
     </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>WalnutCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>WalnutFat</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>WalnutFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>WalnutIron</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>WalnutPotassium</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>WalnutProtein</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>WalnutSodium</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>WalnutVitaminA</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>WalnutVitaminC</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>WalnutVitaminE</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>WalnutZinc</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>WalnutOmega-3</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>9100</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>WalnutVitaminB9</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>0.098</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>RedGrapeCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>17700</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>RedGrapeFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>RedGrapeIron</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>RedGrapePotassium</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>487.3</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>RedGrapeProtein</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>RedGrapeSodium</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>RedGrapeVitaminA</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>RedGrapeVitaminC</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>RedGrapeVitaminE</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>RedGrapeZinc</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>RedGrapeVitaminB9</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/substance_portion.xlsx
+++ b/data/substance_portion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1170"/>
+  <dimension ref="A1:D1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26173,6 +26173,226 @@
         </is>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteFat</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>28000</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteIron</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigrettePotassium</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteProtein</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteSodium</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteVitaminE</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteZinc</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>WhiteWineVinaigretteOmega-3</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/substance_portion.xlsx
+++ b/data/substance_portion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1180"/>
+  <dimension ref="A1:D1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14142,7 +14142,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>CelerySeedsCalcium</t>
+          <t>CelerySeedCalcium</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -14164,7 +14164,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>CelerySeedsCarbohydrate</t>
+          <t>CelerySeedCarbohydrate</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -14186,7 +14186,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>CelerySeedsFat</t>
+          <t>CelerySeedFat</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -14208,7 +14208,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>CelerySeedsFoodEnergy</t>
+          <t>CelerySeedFoodEnergy</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -14230,7 +14230,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>CelerySeedsIron</t>
+          <t>CelerySeedIron</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -14252,7 +14252,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>CelerySeedsPotassium</t>
+          <t>CelerySeedPotassium</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -14274,7 +14274,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>CelerySeedsProtein</t>
+          <t>CelerySeedProtein</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -14296,7 +14296,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>CelerySeedsSodium</t>
+          <t>CelerySeedSodium</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -14318,7 +14318,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>CelerySeedsVitaminA</t>
+          <t>CelerySeedVitaminA</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -14340,7 +14340,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>CelerySeedsVitaminC</t>
+          <t>CelerySeedVitaminC</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -26388,6 +26388,710 @@
         </is>
       </c>
       <c r="D1180" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>RedPotatoCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>15900</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>RedPotatoFat</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>RedPotatoFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>RedPotatoIron</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>RedPotatoPotassium</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>RedPotatoProtein</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>RedPotatoSodium</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>RedPotatoVitaminC</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>RedPotatoZinc</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>RedPotatoVitaminB9</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>OnionCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>9100</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>OnionFat</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>OnionFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>OnionIron</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>OnionPotassium</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>OnionProtein</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>OnionSodium</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>OnionVitaminC</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>OnionZinc</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>OnionVitaminB9</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>FetaCheeseCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>4090</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>FetaCheeseCholesterol</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>FetaCheeseFat</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>21280</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>FetaCheeseFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>FetaCheeseIron</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>FetaCheesePotassium</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>FetaCheeseProtein</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>14210</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>FetaCheeseSodium</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>FetaCheeseVitaminA</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>FetaCheeseVitaminE</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>FetaCheeseZinc</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>FetaCheeseVitaminB9</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
         <is>
           <t>mg/100g</t>
         </is>

--- a/data/substance_portion.xlsx
+++ b/data/substance_portion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1212"/>
+  <dimension ref="A1:D1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27097,6 +27097,424 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>RedPotatoCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>15900</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>RedPotatoFat</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>RedPotatoFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>RedPotatoIron</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>RedPotatoPotassium</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>RedPotatoProtein</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>RedPotatoSodium</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>RedPotatoVitaminC</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>RedPotatoZinc</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>RedPotatoVitaminB9</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0.018</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>CookedHamCarbohydrate</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>CookedHamCholesterol</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>CookedHamFat</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8340</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>CookedHamFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>CookedHamIron</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>CookedHamPotassium</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>CookedHamProtein</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>22300</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>CookedHamSodium</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>CookedHamZinc</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/substance_portion.xlsx
+++ b/data/substance_portion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1231"/>
+  <dimension ref="A1:D1242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27515,6 +27515,248 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>CrabmeatCholesterol</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>53000</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>CrabmeatFat</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>CrabmeatFoodEnergy</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>cal/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>CrabmeatIron</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>CrabmeatPotassium</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>CrabmeatProtein</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>CrabmeatSodium</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>CrabmeatVitaminA</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>CrabmeatVitaminC</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>CrabmeatVitaminE</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>CrabmeatZinc</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>SubstancePortion</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>mg/100g</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
